--- a/Output_testing/R1_201907/Country/HKD/MN/HONG KONG_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/HONG KONG_201907_HKD_MN.xlsx
@@ -505,31 +505,31 @@
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>6.952934642809976e-310</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>6.952934642871635e-310</v>
+        <v>0</v>
       </c>
       <c r="D6" s="8" t="n">
-        <v>1.135452774090728e-317</v>
+        <v>0</v>
       </c>
       <c r="E6" s="8" t="n">
-        <v>6.952934648722953e-316</v>
+        <v>0</v>
       </c>
       <c r="F6" s="8" t="n">
-        <v>1.135451785959436e-317</v>
+        <v>0</v>
       </c>
       <c r="G6" s="8" t="n">
-        <v>1.135451785959436e-317</v>
+        <v>0</v>
       </c>
       <c r="H6" s="9" t="n">
-        <v>1.976262583364986e-323</v>
+        <v>0</v>
       </c>
       <c r="I6" s="9" t="n">
-        <v>6.422853395936205e-323</v>
+        <v>0</v>
       </c>
       <c r="J6" s="9" t="n">
-        <v>5.928787750094959e-323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -539,31 +539,31 @@
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>6.952934642808395e-310</v>
+        <v>0</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>6.952934642919066e-310</v>
+        <v>0</v>
       </c>
       <c r="D7" s="8" t="n">
-        <v>1.135451785959436e-317</v>
+        <v>0</v>
       </c>
       <c r="E7" s="8" t="n">
-        <v>6.952934648722953e-316</v>
+        <v>0</v>
       </c>
       <c r="F7" s="8" t="n">
-        <v>1.135451785959436e-317</v>
+        <v>0</v>
       </c>
       <c r="G7" s="8" t="n">
-        <v>1.135451785959436e-317</v>
+        <v>0</v>
       </c>
       <c r="H7" s="9" t="n">
-        <v>1.037537856266618e-322</v>
+        <v>0</v>
       </c>
       <c r="I7" s="9" t="n">
-        <v>4.940656458412465e-323</v>
+        <v>0</v>
       </c>
       <c r="J7" s="9" t="n">
-        <v>2.964393875047479e-323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>6.952934642849501e-310</v>
+        <v>0</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>6.952934642828948e-310</v>
+        <v>0</v>
       </c>
       <c r="D8" s="8" t="n">
-        <v>1.135451785959436e-317</v>
+        <v>0</v>
       </c>
       <c r="E8" s="8" t="n">
-        <v>1.135451785959436e-317</v>
+        <v>0</v>
       </c>
       <c r="F8" s="8" t="n">
-        <v>1.135451785959436e-317</v>
+        <v>0</v>
       </c>
       <c r="G8" s="8" t="n">
-        <v>1.135451785959436e-317</v>
+        <v>0</v>
       </c>
       <c r="H8" s="9" t="n">
-        <v>4.940656458412465e-323</v>
+        <v>0</v>
       </c>
       <c r="I8" s="9" t="n">
-        <v>3.458459520888726e-323</v>
+        <v>0</v>
       </c>
       <c r="J8" s="9" t="n">
-        <v>3.952525166729972e-323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -607,31 +607,31 @@
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>6.9529346429412e-310</v>
+        <v>0</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>6.952934642876378e-310</v>
+        <v>0</v>
       </c>
       <c r="D9" s="8" t="n">
-        <v>1.135451785959436e-317</v>
+        <v>0</v>
       </c>
       <c r="E9" s="8" t="n">
-        <v>1.135451785959436e-317</v>
+        <v>0</v>
       </c>
       <c r="F9" s="8" t="n">
-        <v>1.135451785959436e-317</v>
+        <v>0</v>
       </c>
       <c r="G9" s="8" t="n">
-        <v>1.135451785959436e-317</v>
+        <v>0</v>
       </c>
       <c r="H9" s="9" t="n">
-        <v>3.952525166729972e-323</v>
+        <v>0</v>
       </c>
       <c r="I9" s="9" t="n">
-        <v>3.952525166729972e-323</v>
+        <v>0</v>
       </c>
       <c r="J9" s="9" t="n">
-        <v>3.952525166729972e-323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -641,31 +641,31 @@
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>6.952934642939619e-310</v>
+        <v>0</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>6.952934642933295e-310</v>
+        <v>0</v>
       </c>
       <c r="D10" s="8" t="n">
-        <v>1.135451785959436e-317</v>
+        <v>0</v>
       </c>
       <c r="E10" s="8" t="n">
-        <v>6.952934648722953e-316</v>
+        <v>0</v>
       </c>
       <c r="F10" s="8" t="n">
-        <v>1.135451785959436e-317</v>
+        <v>0</v>
       </c>
       <c r="G10" s="8" t="n">
-        <v>6.952934648722953e-316</v>
+        <v>0</v>
       </c>
       <c r="H10" s="9" t="n">
-        <v>5.434722104253712e-323</v>
+        <v>0</v>
       </c>
       <c r="I10" s="9" t="n">
-        <v>3.952525166729972e-323</v>
+        <v>0</v>
       </c>
       <c r="J10" s="9" t="n">
-        <v>3.952525166729972e-323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -675,10 +675,10 @@
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>6.952934642843177e-310</v>
+        <v>0</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>6.952934642942781e-310</v>
+        <v>0</v>
       </c>
       <c r="D11" s="10" t="n"/>
       <c r="E11" s="10" t="n"/>

--- a/Output_testing/R1_201907/Country/HKD/MN/HONG KONG_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/HONG KONG_201907_HKD_MN.xlsx
@@ -510,26 +510,40 @@
       <c r="C6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D6" s="8" t="n">
-        <v>0</v>
+      <c r="D6" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="E6" s="8" t="n">
-        <v>0</v>
+      <c r="E6" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="F6" s="8" t="n">
-        <v>0</v>
+      <c r="F6" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="G6" s="8" t="n">
-        <v>0</v>
+      <c r="G6" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="H6" s="9" t="n">
-        <v>0</v>
+      <c r="H6" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="I6" s="9" t="n">
-        <v>0</v>
+      <c r="I6" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="J6" s="9" t="n">
-        <v>0</v>
+      <c r="J6" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -544,26 +558,40 @@
       <c r="C7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D7" s="8" t="n">
-        <v>0</v>
+      <c r="D7" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="E7" s="8" t="n">
-        <v>0</v>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="F7" s="8" t="n">
-        <v>0</v>
+      <c r="F7" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="G7" s="8" t="n">
-        <v>0</v>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="H7" s="9" t="n">
-        <v>0</v>
+      <c r="H7" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="I7" s="9" t="n">
-        <v>0</v>
+      <c r="I7" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="J7" s="9" t="n">
-        <v>0</v>
+      <c r="J7" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -578,26 +606,40 @@
       <c r="C8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D8" s="8" t="n">
-        <v>0</v>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="E8" s="8" t="n">
-        <v>0</v>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="F8" s="8" t="n">
-        <v>0</v>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="G8" s="8" t="n">
-        <v>0</v>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="H8" s="9" t="n">
-        <v>0</v>
+      <c r="H8" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="I8" s="9" t="n">
-        <v>0</v>
+      <c r="I8" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="J8" s="9" t="n">
-        <v>0</v>
+      <c r="J8" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -612,26 +654,40 @@
       <c r="C9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D9" s="8" t="n">
-        <v>0</v>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="E9" s="8" t="n">
-        <v>0</v>
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="F9" s="8" t="n">
-        <v>0</v>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="G9" s="8" t="n">
-        <v>0</v>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="H9" s="9" t="n">
-        <v>0</v>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="I9" s="9" t="n">
-        <v>0</v>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="J9" s="9" t="n">
-        <v>0</v>
+      <c r="J9" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -646,26 +702,40 @@
       <c r="C10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D10" s="8" t="n">
-        <v>0</v>
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="E10" s="8" t="n">
-        <v>0</v>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="F10" s="8" t="n">
-        <v>0</v>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="G10" s="8" t="n">
-        <v>0</v>
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="H10" s="9" t="n">
-        <v>0</v>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="I10" s="9" t="n">
-        <v>0</v>
+      <c r="I10" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
-      <c r="J10" s="9" t="n">
-        <v>0</v>
+      <c r="J10" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="11">

--- a/Output_testing/R1_201907/Country/HKD/MN/HONG KONG_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/HONG KONG_201907_HKD_MN.xlsx
@@ -858,16 +858,61 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="13" t="n"/>
-      <c r="C18" s="10" t="n"/>
-      <c r="D18" s="11" t="n"/>
-      <c r="E18" s="10" t="n"/>
-      <c r="F18" s="11" t="n"/>
-      <c r="G18" s="10" t="n"/>
-      <c r="H18" s="11" t="n"/>
-      <c r="I18" s="10" t="n"/>
-      <c r="J18" s="11" t="n"/>
-      <c r="K18" s="11" t="n"/>
+      <c r="A18" s="13" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D18" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F18" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H18" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I18" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J18" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K18" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="13" t="n"/>
@@ -1019,16 +1064,61 @@
       <c r="K30" s="11" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="13" t="n"/>
-      <c r="C31" s="10" t="n"/>
-      <c r="D31" s="11" t="n"/>
-      <c r="E31" s="10" t="n"/>
-      <c r="F31" s="11" t="n"/>
-      <c r="G31" s="10" t="n"/>
-      <c r="H31" s="11" t="n"/>
-      <c r="I31" s="10" t="n"/>
-      <c r="J31" s="11" t="n"/>
-      <c r="K31" s="11" t="n"/>
+      <c r="A31" s="13" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="13" t="n"/>
@@ -1180,16 +1270,61 @@
       <c r="K43" s="11" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="13" t="n"/>
-      <c r="C44" s="10" t="n"/>
-      <c r="D44" s="11" t="n"/>
-      <c r="E44" s="10" t="n"/>
-      <c r="F44" s="11" t="n"/>
-      <c r="G44" s="10" t="n"/>
-      <c r="H44" s="11" t="n"/>
-      <c r="I44" s="10" t="n"/>
-      <c r="J44" s="11" t="n"/>
-      <c r="K44" s="11" t="n"/>
+      <c r="A44" s="13" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D44" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E44" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F44" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G44" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H44" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I44" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J44" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K44" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="13" t="n"/>
@@ -1341,16 +1476,61 @@
       <c r="K56" s="11" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="13" t="n"/>
-      <c r="C57" s="10" t="n"/>
-      <c r="D57" s="11" t="n"/>
-      <c r="E57" s="10" t="n"/>
-      <c r="F57" s="11" t="n"/>
-      <c r="G57" s="10" t="n"/>
-      <c r="H57" s="11" t="n"/>
-      <c r="I57" s="10" t="n"/>
-      <c r="J57" s="11" t="n"/>
-      <c r="K57" s="11" t="n"/>
+      <c r="A57" s="13" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D57" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E57" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F57" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G57" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H57" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I57" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J57" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K57" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="13" t="n"/>
